--- a/LoK v3/LoK text.xlsx
+++ b/LoK v3/LoK text.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\LoK v3\LoK v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Projects\LoK v3\LoK-v3\LoK v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB41F5D7-3887-4912-ABE1-3B1AEAB951EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CFC814-4AD8-42B5-ACEF-A4020CD942F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="19070" windowHeight="7140" xr2:uid="{DF2FAB78-E04E-4F91-9A08-084FCF6B9EAA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DF2FAB78-E04E-4F91-9A08-084FCF6B9EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12161" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11452" uniqueCount="569">
   <si>
     <t>option #</t>
   </si>
@@ -1842,13 +1842,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>420323</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>70635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457043</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>90435</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1866,7 +1866,7 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="4304160" y="41234879"/>
+            <a:off x="4304160" y="41788658"/>
             <a:ext cx="36720" cy="19800"/>
           </xdr14:xfrm>
         </xdr:contentPart>
@@ -1907,13 +1907,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>392087</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>4668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>392447</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>8268</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1931,7 +1931,7 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="6727320" y="40984319"/>
+            <a:off x="6727320" y="41538098"/>
             <a:ext cx="360" cy="3600"/>
           </xdr14:xfrm>
         </xdr:contentPart>
@@ -1972,13 +1972,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>332687</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>63708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>333767</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>69108</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1996,7 +1996,7 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="6667920" y="41043359"/>
+            <a:off x="6667920" y="41597138"/>
             <a:ext cx="1080" cy="5400"/>
           </xdr14:xfrm>
         </xdr:contentPart>
@@ -2037,13 +2037,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1276071</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>118155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1277151</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>121035</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -2061,7 +2061,7 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="1888920" y="41282399"/>
+            <a:off x="1888920" y="41836178"/>
             <a:ext cx="1080" cy="2880"/>
           </xdr14:xfrm>
         </xdr:contentPart>
@@ -2102,13 +2102,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1423311</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>8355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1425831</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>15555</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -2126,7 +2126,7 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="2036160" y="41172599"/>
+            <a:off x="2036160" y="41726378"/>
             <a:ext cx="2520" cy="7200"/>
           </xdr14:xfrm>
         </xdr:contentPart>
@@ -2191,7 +2191,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3 54 736,'0'0'450,"0"-1"-142,-1 0 3582,0 1-7690</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="662.4">36 9 2072,'14'2'8983,"10"-8"-2638,0 1-1098,-20 8-3575,-4 2-7511,0 3-7447,0-5 9320</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1228.59">30 28 3520,'8'-1'11164,"-5"1"-4197,-3-4-7093,0 4-74,0 0-111,0-9-6439,0 6-2968,0 2 6024</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1228.58">30 28 3520,'8'-1'11164,"-5"1"-4197,-3-4-7093,0 4-74,0 0-111,0-9-6439,0 6-2968,0 2 6024</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2601,10 +2601,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CB001E-8B5E-48CB-B166-3B7C202400D1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T242"/>
+  <dimension ref="A1:T244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3164,19 +3164,10 @@
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="1"/>
@@ -3200,19 +3191,10 @@
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="1"/>
@@ -3265,23 +3247,21 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -3299,27 +3279,23 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>310</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>333</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>507</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3335,25 +3311,23 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="1">
         <v>13</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D22" s="1">
-        <v>101</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3371,25 +3345,27 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>310</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>311</v>
+        <v>162</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>350</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3405,20 +3381,26 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D24" s="1">
         <v>101</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="E24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3435,20 +3417,24 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>332</v>
+        <v>33</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+        <v>311</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3465,13 +3451,13 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>325</v>
+        <v>517</v>
       </c>
       <c r="D26" s="1">
         <v>101</v>
@@ -3495,19 +3481,17 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="1">
         <v>15</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3522,25 +3506,23 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="1" t="s">
-        <v>317</v>
-      </c>
+      <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>16</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C28" s="6" t="s">
-        <v>517</v>
+        <v>325</v>
       </c>
       <c r="D28" s="1">
         <v>101</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>346</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -3559,18 +3541,20 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D29" s="1">
-        <v>101</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3584,22 +3568,24 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
+      <c r="S29" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>17</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="6" t="s">
+        <v>517</v>
+      </c>
       <c r="D30" s="1">
-        <v>18</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -3619,10 +3605,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>517</v>
@@ -3649,17 +3635,17 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3679,20 +3665,18 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3706,25 +3690,23 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1" t="s">
-        <v>317</v>
-      </c>
+      <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="1">
         <v>19</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="D34" s="1">
-        <v>101</v>
-      </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3743,17 +3725,19 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>100</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C35" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D35" s="1">
-        <v>104</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>164</v>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3768,23 +3752,25 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
+      <c r="S35" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
+        <v>19</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D36" s="1">
         <v>101</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="D36" s="1">
-        <v>104</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -3803,17 +3789,17 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>102</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="6" t="s">
         <v>520</v>
       </c>
       <c r="D37" s="1">
         <v>104</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>48</v>
+      <c r="E37" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3833,17 +3819,17 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>103</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="6" t="s">
         <v>520</v>
       </c>
       <c r="D38" s="1">
         <v>104</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>49</v>
+      <c r="E38" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3863,17 +3849,17 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
+        <v>102</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D39" s="1">
         <v>104</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>561</v>
+      <c r="E39" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -3893,17 +3879,17 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
+        <v>103</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D40" s="1">
         <v>104</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>52</v>
+      <c r="E40" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -3923,7 +3909,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>50</v>
@@ -3953,7 +3939,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>51</v>
@@ -3986,14 +3972,14 @@
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="1">
-        <v>38</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -4013,15 +3999,17 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>22</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="1">
-        <v>104</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>180</v>
+        <v>21</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -4041,15 +4029,17 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>23</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C45" s="6"/>
       <c r="D45" s="1">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>431</v>
+        <v>54</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -4069,17 +4059,15 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>24</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="1">
+        <v>104</v>
+      </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -4099,21 +4087,17 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>24</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="1">
+        <v>104</v>
+      </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -4134,14 +4118,14 @@
         <v>24</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="1">
-        <v>23</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -4161,18 +4145,21 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>25</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="1">
-        <f ca="1">IF(RAND()&lt;0.5,26,25)</f>
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D49" s="1"/>
       <c r="E49" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F49" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -4190,17 +4177,17 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="1">
+        <v>23</v>
+      </c>
       <c r="E50" s="2" t="s">
-        <v>562</v>
+        <v>61</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -4220,17 +4207,16 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>26</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="1">
+        <f ca="1">IF(RAND()&lt;0.5,26,25)</f>
+        <v>25</v>
+      </c>
       <c r="E51" s="2" t="s">
-        <v>563</v>
+        <v>432</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -4250,15 +4236,17 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>27</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="1">
-        <v>104</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -4278,15 +4266,17 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>28</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="1">
-        <v>104</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -4306,15 +4296,15 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="6"/>
       <c r="D54" s="1">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>181</v>
+        <v>564</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -4334,19 +4324,17 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="6"/>
       <c r="D55" s="1">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4364,17 +4352,15 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>31</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="1">
+        <v>38</v>
+      </c>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -4394,20 +4380,18 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>31</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="1">
+        <v>38</v>
+      </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>566</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -4426,15 +4410,17 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>32</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="1">
-        <v>104</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="2" t="s">
-        <v>433</v>
+        <v>56</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -4454,19 +4440,21 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F59" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4484,17 +4472,15 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>33</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="1">
+        <v>104</v>
+      </c>
       <c r="E60" s="2" t="s">
-        <v>165</v>
+        <v>433</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -4514,15 +4500,17 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>34</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="1">
-        <v>104</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D61" s="1"/>
       <c r="E61" s="2" t="s">
-        <v>182</v>
+        <v>434</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -4542,15 +4530,17 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>35</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="1">
-        <v>104</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D62" s="1"/>
       <c r="E62" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -4570,15 +4560,15 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="6"/>
       <c r="D63" s="1">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -4598,19 +4588,17 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="6"/>
       <c r="D64" s="1">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4628,31 +4616,21 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
+        <v>36</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="1">
         <v>38</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="D65" s="1">
-        <v>105</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="J65" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -4666,22 +4644,18 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>105</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>530</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -4700,23 +4674,31 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
+        <v>38</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D67" s="1">
         <v>105</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="D67" s="1">
-        <v>42</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="E67" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J67" s="7"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -4730,7 +4712,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>69</v>
@@ -4742,9 +4724,11 @@
         <v>42</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F68" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4762,7 +4746,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>70</v>
@@ -4794,30 +4778,28 @@
       <c r="A70" s="1">
         <v>39</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="6"/>
+      <c r="B70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>530</v>
+      </c>
       <c r="D70" s="1">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -4826,57 +4808,47 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>40</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>531</v>
+      </c>
       <c r="D71" s="1">
-        <v>47</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
-      <c r="R71" s="2"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>41</v>
-      </c>
-      <c r="B72" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C72" s="6"/>
       <c r="D72" s="1">
         <v>47</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>184</v>
@@ -4892,7 +4864,6 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -4901,52 +4872,67 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="6" t="s">
-        <v>532</v>
-      </c>
+      <c r="C73" s="6"/>
       <c r="D73" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
+        <v>500</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
+      <c r="R73" s="2"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="6"/>
       <c r="D74" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -4961,18 +4947,20 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
+        <v>42</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D75" s="1">
         <v>44</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="1">
-        <v>45</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -4991,19 +4979,17 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="6"/>
       <c r="D76" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>488</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5021,17 +5007,19 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>46</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B77" s="1"/>
       <c r="C77" s="6"/>
       <c r="D77" s="1">
-        <v>106</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -5042,36 +5030,28 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-      <c r="Q77" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>46</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B78" s="1"/>
       <c r="C78" s="6"/>
       <c r="D78" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -5087,62 +5067,60 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>106</v>
-      </c>
-      <c r="B79" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C79" s="6"/>
       <c r="D79" s="1">
-        <v>47</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
+      <c r="Q79" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="7"/>
+        <v>510</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="7"/>
+      <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -5155,29 +5133,31 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>47</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B81" s="1"/>
       <c r="C81" s="6"/>
       <c r="D81" s="1">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+        <v>509</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -5191,28 +5171,24 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="H82" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="7"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+      <c r="K82" s="7"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -5225,23 +5201,27 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>460</v>
+        <v>83</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+        <v>489</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -5257,20 +5237,24 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
+        <v>48</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="1">
         <v>49</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="D84" s="1">
-        <v>51</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="E84" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>503</v>
+      </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -5287,20 +5271,20 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>89</v>
+        <v>460</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -5319,19 +5303,19 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>50</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>533</v>
+      </c>
       <c r="D86" s="1">
-        <v>53</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>294</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5342,27 +5326,27 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
-      <c r="Q86" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>51</v>
-      </c>
-      <c r="B87" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C87" s="6"/>
       <c r="D87" s="1">
         <v>53</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>303</v>
+        <v>201</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>304</v>
+        <v>89</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -5374,28 +5358,26 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
-      <c r="Q87" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>52</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B88" s="1"/>
       <c r="C88" s="6"/>
       <c r="D88" s="1">
-        <v>48</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F88" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -5406,27 +5388,27 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
+      <c r="Q88" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>52</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>340</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B89" s="1"/>
       <c r="C89" s="6"/>
       <c r="D89" s="1">
         <v>53</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>89</v>
+        <v>304</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -5438,25 +5420,27 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
+      <c r="Q89" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>534</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C90" s="6"/>
       <c r="D90" s="1">
-        <v>54</v>
-      </c>
-      <c r="E90" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -5475,19 +5459,21 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
+        <v>52</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="1">
         <v>53</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D91" s="1">
-        <v>57</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="E91" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5508,13 +5494,13 @@
         <v>53</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D92" s="1">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -5538,13 +5524,13 @@
         <v>53</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D93" s="1">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -5565,16 +5551,18 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>54</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>536</v>
+      </c>
       <c r="D94" s="1">
-        <v>53</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -5593,16 +5581,18 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>55</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>537</v>
+      </c>
       <c r="D95" s="1">
-        <v>53</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>508</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -5621,7 +5611,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="6"/>
@@ -5629,14 +5619,10 @@
         <v>53</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>288</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -5653,7 +5639,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="6"/>
@@ -5661,11 +5647,9 @@
         <v>53</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>290</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -5676,37 +5660,31 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-      <c r="Q97" s="1" t="s">
-        <v>343</v>
-      </c>
+      <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="6"/>
       <c r="D98" s="1">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>385</v>
+        <v>287</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>386</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -5721,20 +5699,18 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>60</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B99" s="1"/>
       <c r="C99" s="6"/>
       <c r="D99" s="1">
         <v>53</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>99</v>
+        <v>289</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -5746,31 +5722,37 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
+      <c r="Q99" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>60</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B100" s="1"/>
       <c r="C100" s="6"/>
       <c r="D100" s="1">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+        <v>385</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -5785,17 +5767,21 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>61</v>
-      </c>
-      <c r="B101" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="C101" s="6"/>
       <c r="D101" s="1">
         <v>53</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F101" s="1"/>
+        <v>348</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -5813,25 +5799,23 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>62</v>
-      </c>
-      <c r="B102" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C102" s="6"/>
       <c r="D102" s="1">
         <v>53</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>492</v>
+        <v>189</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>493</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -5840,24 +5824,22 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
-      <c r="Q102" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="6"/>
       <c r="D103" s="1">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -5877,7 +5859,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="6"/>
@@ -5885,13 +5867,17 @@
         <v>53</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>492</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>493</v>
+      </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -5900,29 +5886,27 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
+      <c r="Q104" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="6"/>
       <c r="D105" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -5939,50 +5923,28 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>66</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>538</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="6"/>
       <c r="D106" s="1">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="O106" s="2" t="s">
-        <v>498</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
@@ -5991,50 +5953,30 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
+        <v>65</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="1">
         <v>66</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="D107" s="1">
-        <v>68</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>498</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
@@ -6043,28 +5985,50 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>67</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>538</v>
+      </c>
       <c r="D108" s="1">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G108" s="4"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>498</v>
+      </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
@@ -6073,30 +6037,50 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
+        <v>66</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D109" s="1">
         <v>68</v>
       </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="D109" s="1">
-        <v>75</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G109" s="4"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>498</v>
+      </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
@@ -6105,24 +6089,22 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="6"/>
       <c r="D110" s="1">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G110" s="4"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="I110" s="2"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -6137,22 +6119,24 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="6"/>
+      <c r="C111" s="6" t="s">
+        <v>539</v>
+      </c>
       <c r="D111" s="1">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -6167,23 +6151,21 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>71</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B112" s="1"/>
       <c r="C112" s="6"/>
       <c r="D112" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -6201,20 +6183,18 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>71</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B113" s="1"/>
       <c r="C113" s="6"/>
       <c r="D113" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -6228,29 +6208,29 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
-      <c r="S113" s="1" t="s">
-        <v>318</v>
-      </c>
+      <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
+        <v>71</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="1">
         <v>72</v>
       </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="D114" s="1">
-        <v>74</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G114" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -6267,22 +6247,22 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>73</v>
-      </c>
-      <c r="B115" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="C115" s="6"/>
       <c r="D115" s="1">
         <v>0</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -6295,24 +6275,26 @@
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="T115" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="T115" s="1"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
+        <v>72</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D116" s="1">
         <v>74</v>
       </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="1">
-        <v>0</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>119</v>
+        <v>459</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -6326,31 +6308,27 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
-      <c r="S116" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="T116" s="2"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>75</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>121</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="6"/>
       <c r="D117" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G117" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -6362,24 +6340,26 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="1"/>
+      <c r="S117" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="T117" s="2"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>75</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B118" s="1"/>
       <c r="C118" s="6"/>
       <c r="D118" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F118" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -6392,26 +6372,30 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
-      <c r="S118" s="1"/>
-      <c r="T118" s="1"/>
+      <c r="S118" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T118" s="2"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
+        <v>75</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D119" s="1">
         <v>76</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="D119" s="1">
-        <v>78</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F119" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -6429,17 +6413,17 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>76</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>128</v>
+        <v>75</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="1">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -6459,15 +6443,19 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>77</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>541</v>
+      </c>
       <c r="D121" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -6487,24 +6475,20 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>78</v>
-      </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="6" t="s">
-        <v>542</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" s="6"/>
       <c r="D122" s="1">
-        <v>666</v>
+        <v>82</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>195</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -6521,15 +6505,15 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="6"/>
       <c r="D123" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>465</v>
+        <v>130</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -6543,30 +6527,30 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-      <c r="R123" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="R123" s="1"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>80</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C124" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="6" t="s">
+        <v>542</v>
+      </c>
       <c r="D124" s="1">
-        <v>82</v>
+        <v>666</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G124" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -6583,23 +6567,17 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>80</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>543</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="6"/>
       <c r="D125" s="1">
-        <v>666</v>
+        <v>77</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>195</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -6611,25 +6589,31 @@
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
+      <c r="R125" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>81</v>
-      </c>
-      <c r="B126" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="C126" s="6"/>
       <c r="D126" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -6641,25 +6625,29 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
-      <c r="T126" s="2"/>
+      <c r="T126" s="1"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C127" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>543</v>
+      </c>
       <c r="D127" s="1">
-        <v>85</v>
+        <v>666</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F127" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="G127" s="1"/>
-      <c r="H127" s="2"/>
+      <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -6675,21 +6663,19 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>82</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>544</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="6"/>
       <c r="D128" s="1">
-        <v>84</v>
-      </c>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -6701,27 +6687,25 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
-      <c r="T128" s="1"/>
+      <c r="T128" s="2"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>83</v>
-      </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="6" t="s">
-        <v>545</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="6"/>
       <c r="D129" s="1">
-        <v>666</v>
+        <v>85</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
+      <c r="H129" s="2"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -6731,26 +6715,24 @@
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
-      <c r="R129" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="R129" s="1"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
+        <v>82</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D130" s="1">
         <v>84</v>
       </c>
-      <c r="B130" s="1"/>
-      <c r="C130" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="D130" s="1">
-        <v>86</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -6769,17 +6751,20 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B131" s="1"/>
+      <c r="C131" s="6" t="s">
+        <v>545</v>
+      </c>
       <c r="D131" s="1">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>427</v>
+        <v>196</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -6792,27 +6777,27 @@
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-      <c r="R131" s="1"/>
-      <c r="S131" s="1" t="s">
-        <v>321</v>
-      </c>
+      <c r="R131" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
+        <v>84</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D132" s="1">
         <v>86</v>
       </c>
-      <c r="B132" s="1"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="1">
-        <v>87</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>461</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -6830,214 +6815,217 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>87</v>
-      </c>
-      <c r="B133" t="s">
-        <v>462</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>547</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B133" s="1"/>
       <c r="D133" s="1">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>464</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="T133" s="1"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
+        <v>86</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="1">
         <v>87</v>
       </c>
-      <c r="B134" t="s">
-        <v>463</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="D134" s="1">
-        <v>92</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F134" t="s">
-        <v>470</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>88</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>545</v>
+        <v>87</v>
+      </c>
+      <c r="B135" t="s">
+        <v>462</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>547</v>
       </c>
       <c r="D135" s="1">
-        <v>666</v>
+        <v>91</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F135" t="s">
-        <v>466</v>
-      </c>
-      <c r="G135" t="s">
-        <v>467</v>
-      </c>
-      <c r="H135" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>89</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>545</v>
+        <v>87</v>
+      </c>
+      <c r="B136" t="s">
+        <v>463</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="D136" s="1">
-        <v>666</v>
+        <v>92</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F136" t="s">
-        <v>477</v>
-      </c>
-      <c r="G136" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>545</v>
       </c>
       <c r="D137" s="1">
-        <v>85</v>
+        <v>666</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F137" t="s">
-        <v>473</v>
+        <v>466</v>
+      </c>
+      <c r="G137" t="s">
+        <v>467</v>
+      </c>
+      <c r="H137" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>91</v>
-      </c>
-      <c r="D138">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D138" s="1">
+        <v>666</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F138" t="s">
-        <v>475</v>
+        <v>477</v>
+      </c>
+      <c r="G138" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>92</v>
-      </c>
-      <c r="D139">
+        <v>90</v>
+      </c>
+      <c r="D139" s="1">
         <v>85</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F139" t="s">
-        <v>480</v>
-      </c>
-      <c r="G139" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>666</v>
-      </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="1">
-        <v>667</v>
+        <v>91</v>
+      </c>
+      <c r="D140">
+        <v>85</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
-      <c r="S140" s="1"/>
-      <c r="T140" s="1"/>
+        <v>474</v>
+      </c>
+      <c r="F140" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>667</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="D141" s="1">
-        <v>670</v>
-      </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
-      <c r="P141" s="1"/>
-      <c r="Q141" s="1"/>
-      <c r="R141" s="1"/>
-      <c r="S141" s="1"/>
-      <c r="T141" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D141">
+        <v>85</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F141" t="s">
+        <v>480</v>
+      </c>
+      <c r="G141" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>667</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="B142" s="1"/>
       <c r="C142" s="6"/>
       <c r="D142" s="1">
-        <v>673</v>
-      </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
+        <v>667</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
@@ -7054,18 +7042,16 @@
         <v>667</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C143" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>549</v>
+      </c>
       <c r="D143" s="1">
-        <v>667</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>302</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -7086,18 +7072,14 @@
         <v>667</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="1">
-        <v>999</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>411</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -7115,17 +7097,21 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>668</v>
-      </c>
-      <c r="B145" s="7"/>
+        <v>667</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="C145" s="6"/>
       <c r="D145" s="1">
         <v>667</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F145" s="1"/>
+        <v>301</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -7143,17 +7129,21 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>669</v>
-      </c>
-      <c r="B146" s="1"/>
+        <v>667</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="C146" s="6"/>
       <c r="D146" s="1">
-        <v>667</v>
+        <v>999</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F146" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -7164,31 +7154,25 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
-      <c r="Q146" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>670</v>
-      </c>
-      <c r="B147" s="1"/>
+        <v>668</v>
+      </c>
+      <c r="B147" s="7"/>
       <c r="C147" s="6"/>
       <c r="D147" s="1">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="F147" t="s">
-        <v>513</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -7205,16 +7189,16 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>671</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="B148" s="1"/>
       <c r="C148" s="6"/>
       <c r="D148" s="1">
-        <v>672</v>
-      </c>
-      <c r="E148" s="1"/>
+        <v>667</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -7226,27 +7210,31 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
+      <c r="Q148" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>671</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="B149" s="1"/>
       <c r="C149" s="6"/>
       <c r="D149" s="1">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+        <v>512</v>
+      </c>
+      <c r="F149" t="s">
+        <v>513</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -7263,19 +7251,17 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>672</v>
-      </c>
-      <c r="B150" s="1"/>
+        <v>671</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C150" s="6"/>
       <c r="D150" s="1">
-        <v>667</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -7286,30 +7272,26 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
-      <c r="Q150" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>673</v>
-      </c>
-      <c r="B151" s="1"/>
-      <c r="C151" s="6" t="s">
-        <v>550</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C151" s="6"/>
       <c r="D151" s="1">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>150</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -7327,19 +7309,19 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B152" s="1"/>
-      <c r="C152" s="6" t="s">
-        <v>551</v>
-      </c>
+      <c r="C152" s="6"/>
       <c r="D152" s="1">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F152" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -7350,25 +7332,29 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
+      <c r="Q152" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B153" s="1"/>
-      <c r="C153" s="6"/>
+      <c r="C153" s="6" t="s">
+        <v>550</v>
+      </c>
       <c r="D153" s="1">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -7381,23 +7367,23 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-      <c r="R153" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="R153" s="1"/>
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
+        <v>674</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D154" s="1">
         <v>676</v>
       </c>
-      <c r="B154" s="1"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="1">
-        <v>667</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -7417,17 +7403,19 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="6"/>
       <c r="D155" s="1">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F155" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -7439,21 +7427,23 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-      <c r="R155" s="1"/>
+      <c r="R155" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="6"/>
       <c r="D156" s="1">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -7473,32 +7463,21 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="6"/>
       <c r="D157" s="1">
-        <f ca="1">RANDBETWEEN(680,682)</f>
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
@@ -7512,15 +7491,15 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="6"/>
       <c r="D158" s="1">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -7540,21 +7519,32 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="6"/>
       <c r="D159" s="1">
-        <v>684</v>
+        <f ca="1">RANDBETWEEN(680,682)</f>
+        <v>680</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
@@ -7568,15 +7558,15 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="6"/>
       <c r="D160" s="1">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -7596,21 +7586,17 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>683</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="B161" s="1"/>
       <c r="C161" s="6"/>
       <c r="D161" s="1">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>226</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -7628,23 +7614,17 @@
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>683</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>552</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="6"/>
       <c r="D162" s="1">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>227</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -7665,19 +7645,17 @@
         <v>683</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>552</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C163" s="6"/>
       <c r="D163" s="1">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -7696,10 +7674,10 @@
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>552</v>
@@ -7730,20 +7708,22 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C165" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>552</v>
+      </c>
       <c r="D165" s="1">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -7765,7 +7745,7 @@
         <v>684</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>552</v>
@@ -7796,22 +7776,20 @@
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>552</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C167" s="6"/>
       <c r="D167" s="1">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -7830,10 +7808,10 @@
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>552</v>
@@ -7867,17 +7845,19 @@
         <v>685</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C169" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>552</v>
+      </c>
       <c r="D169" s="1">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -7896,17 +7876,23 @@
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>686</v>
-      </c>
-      <c r="B170" s="1"/>
-      <c r="C170" s="6"/>
+        <v>685</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>552</v>
+      </c>
       <c r="D170" s="1">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F170" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -7918,25 +7904,27 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-      <c r="R170" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="R170" s="1"/>
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>687</v>
-      </c>
-      <c r="B171" s="1"/>
+        <v>685</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="C171" s="6"/>
       <c r="D171" s="1">
-        <v>667</v>
+        <v>688</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F171" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -7954,25 +7942,19 @@
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="6"/>
       <c r="D172" s="1">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>354</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -7982,81 +7964,87 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
+      <c r="R172" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>689</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C173" s="8"/>
+        <v>687</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="6"/>
       <c r="D173" s="1">
-        <v>690</v>
-      </c>
-      <c r="E173" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="7"/>
-      <c r="L173" s="7"/>
-      <c r="M173" s="7"/>
-      <c r="N173" s="7"/>
-      <c r="O173" s="7"/>
-      <c r="P173" s="7"/>
-      <c r="Q173" s="7"/>
-      <c r="R173" s="7"/>
-      <c r="S173" s="7"/>
+        <v>667</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
+        <v>688</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="1">
         <v>689</v>
       </c>
-      <c r="B174" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="C174" s="8"/>
-      <c r="D174" s="1">
-        <v>694</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
-      <c r="K174" s="7"/>
-      <c r="L174" s="7"/>
-      <c r="M174" s="7"/>
-      <c r="N174" s="7"/>
-      <c r="O174" s="7"/>
-      <c r="P174" s="7"/>
-      <c r="Q174" s="7"/>
-      <c r="R174" s="7"/>
-      <c r="S174" s="7"/>
+      <c r="E174" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="T174" s="1"/>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>689</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175" s="1">
-        <v>698</v>
-      </c>
-      <c r="E175" s="10" t="s">
-        <v>414</v>
+        <v>690</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>412</v>
       </c>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
@@ -8078,14 +8066,14 @@
         <v>689</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>356</v>
+        <v>516</v>
       </c>
       <c r="C176" s="8"/>
       <c r="D176" s="1">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
@@ -8104,19 +8092,19 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="1">
-        <v>689</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F177" s="2"/>
+        <v>698</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
@@ -8133,19 +8121,19 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="1">
-        <v>689</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F178" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
@@ -8165,16 +8153,16 @@
         <v>690</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C179" s="8"/>
       <c r="D179" s="1">
-        <v>691</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="F179" s="7"/>
+        <v>689</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F179" s="2"/>
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
@@ -8191,19 +8179,19 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C180" s="8"/>
       <c r="D180" s="1">
-        <v>692</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="F180" s="7"/>
+        <v>689</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F180" s="2"/>
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
@@ -8220,19 +8208,19 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C181" s="8"/>
       <c r="D181" s="1">
-        <v>689</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F181" s="2"/>
+        <v>691</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
@@ -8252,16 +8240,16 @@
         <v>691</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="1">
-        <v>689</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F182" s="2"/>
+        <v>692</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
@@ -8278,10 +8266,10 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C183" s="8"/>
       <c r="D183" s="1">
@@ -8307,10 +8295,10 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C184" s="8"/>
       <c r="D184" s="1">
@@ -8339,16 +8327,16 @@
         <v>692</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C185" s="8"/>
-      <c r="D185" s="7">
-        <v>693</v>
-      </c>
-      <c r="E185" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="F185" s="7"/>
+      <c r="D185" s="1">
+        <v>689</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F185" s="2"/>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
@@ -8365,10 +8353,10 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C186" s="8"/>
       <c r="D186" s="1">
@@ -8394,33 +8382,23 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C187" s="8"/>
       <c r="D187" s="7">
-        <v>706</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J187" s="2" t="s">
-        <v>235</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
@@ -8436,7 +8414,7 @@
         <v>693</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C188" s="8"/>
       <c r="D188" s="1">
@@ -8462,23 +8440,33 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="7">
-        <v>695</v>
-      </c>
-      <c r="E189" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
+        <v>706</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
@@ -8491,10 +8479,10 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C190" s="8"/>
       <c r="D190" s="1">
@@ -8523,16 +8511,16 @@
         <v>694</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C191" s="8"/>
-      <c r="D191" s="1">
-        <v>689</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F191" s="2"/>
+      <c r="D191" s="7">
+        <v>695</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
@@ -8549,10 +8537,10 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C192" s="8"/>
       <c r="D192" s="1">
@@ -8578,19 +8566,19 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C193" s="8"/>
-      <c r="D193" s="7">
-        <v>696</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="F193" s="7"/>
+      <c r="D193" s="1">
+        <v>689</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F193" s="2"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
@@ -8610,7 +8598,7 @@
         <v>695</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C194" s="8"/>
       <c r="D194" s="1">
@@ -8636,17 +8624,17 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C195" s="8"/>
       <c r="D195" s="7">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
@@ -8665,10 +8653,10 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C196" s="8"/>
       <c r="D196" s="1">
@@ -8697,16 +8685,16 @@
         <v>696</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C197" s="8"/>
-      <c r="D197" s="1">
-        <v>689</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F197" s="2"/>
+      <c r="D197" s="7">
+        <v>697</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
@@ -8723,33 +8711,23 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C198" s="8"/>
-      <c r="D198" s="7">
-        <v>706</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I198" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J198" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="D198" s="1">
+        <v>689</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F198" s="2"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
       <c r="K198" s="7"/>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
@@ -8762,10 +8740,10 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C199" s="8"/>
       <c r="D199" s="1">
@@ -8794,20 +8772,30 @@
         <v>697</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C200" s="8"/>
-      <c r="D200" s="1">
-        <v>689</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F200" s="2"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
-      <c r="I200" s="7"/>
-      <c r="J200" s="7"/>
+      <c r="D200" s="7">
+        <v>706</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="K200" s="7"/>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
@@ -8820,10 +8808,10 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C201" s="8"/>
       <c r="D201" s="1">
@@ -8849,19 +8837,19 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C202" s="8"/>
-      <c r="D202" s="7">
-        <v>699</v>
-      </c>
-      <c r="E202" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="F202" s="7"/>
+      <c r="D202" s="1">
+        <v>689</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F202" s="2"/>
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
@@ -8881,7 +8869,7 @@
         <v>698</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C203" s="8"/>
       <c r="D203" s="1">
@@ -8907,19 +8895,19 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
+        <v>698</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C204" s="8"/>
+      <c r="D204" s="7">
         <v>699</v>
       </c>
-      <c r="B204" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C204" s="8"/>
-      <c r="D204" s="1">
-        <v>689</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F204" s="2"/>
+      <c r="E204" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="F204" s="7"/>
       <c r="G204" s="7"/>
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
@@ -8936,10 +8924,10 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C205" s="8"/>
       <c r="D205" s="1">
@@ -8968,16 +8956,16 @@
         <v>699</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C206" s="8"/>
-      <c r="D206" s="7">
-        <v>700</v>
-      </c>
-      <c r="E206" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F206" s="7"/>
+      <c r="D206" s="1">
+        <v>689</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F206" s="2"/>
       <c r="G206" s="7"/>
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
@@ -8994,10 +8982,10 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C207" s="8"/>
       <c r="D207" s="1">
@@ -9023,19 +9011,19 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
+        <v>699</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C208" s="8"/>
+      <c r="D208" s="7">
         <v>700</v>
       </c>
-      <c r="B208" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C208" s="8"/>
-      <c r="D208" s="1">
-        <v>689</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F208" s="2"/>
+      <c r="E208" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F208" s="7"/>
       <c r="G208" s="7"/>
       <c r="H208" s="7"/>
       <c r="I208" s="7"/>
@@ -9055,16 +9043,16 @@
         <v>700</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C209" s="8"/>
-      <c r="D209" s="7">
-        <v>701</v>
-      </c>
-      <c r="E209" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="F209" s="7"/>
+      <c r="D209" s="1">
+        <v>689</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F209" s="2"/>
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
       <c r="I209" s="7"/>
@@ -9081,33 +9069,23 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C210" s="8"/>
-      <c r="D210" s="7">
-        <v>706</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J210" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="D210" s="1">
+        <v>689</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F210" s="2"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="7"/>
+      <c r="J210" s="7"/>
       <c r="K210" s="7"/>
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
@@ -9120,19 +9098,19 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
+        <v>700</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C211" s="8"/>
+      <c r="D211" s="7">
         <v>701</v>
       </c>
-      <c r="B211" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C211" s="8"/>
-      <c r="D211" s="1">
-        <v>689</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F211" s="2"/>
+      <c r="E211" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F211" s="7"/>
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
       <c r="I211" s="7"/>
@@ -9152,20 +9130,30 @@
         <v>701</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C212" s="8"/>
-      <c r="D212" s="1">
-        <v>689</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F212" s="2"/>
-      <c r="G212" s="7"/>
-      <c r="H212" s="7"/>
-      <c r="I212" s="7"/>
-      <c r="J212" s="7"/>
+      <c r="D212" s="7">
+        <v>706</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="K212" s="7"/>
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
@@ -9178,10 +9166,10 @@
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C213" s="8"/>
       <c r="D213" s="1">
@@ -9207,10 +9195,10 @@
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C214" s="8"/>
       <c r="D214" s="1">
@@ -9239,16 +9227,16 @@
         <v>702</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C215" s="8"/>
-      <c r="D215" s="7">
-        <v>703</v>
-      </c>
-      <c r="E215" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="F215" s="7"/>
+      <c r="D215" s="1">
+        <v>689</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F215" s="2"/>
       <c r="G215" s="7"/>
       <c r="H215" s="7"/>
       <c r="I215" s="7"/>
@@ -9265,10 +9253,10 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C216" s="8"/>
       <c r="D216" s="1">
@@ -9294,17 +9282,17 @@
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C217" s="8"/>
       <c r="D217" s="7">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
@@ -9326,7 +9314,7 @@
         <v>703</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C218" s="8"/>
       <c r="D218" s="1">
@@ -9352,17 +9340,17 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C219" s="8"/>
       <c r="D219" s="7">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
@@ -9381,10 +9369,10 @@
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C220" s="8"/>
       <c r="D220" s="1">
@@ -9413,16 +9401,16 @@
         <v>704</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C221" s="8"/>
-      <c r="D221" s="1">
-        <v>689</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F221" s="2"/>
+      <c r="D221" s="7">
+        <v>705</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="F221" s="7"/>
       <c r="G221" s="7"/>
       <c r="H221" s="7"/>
       <c r="I221" s="7"/>
@@ -9439,10 +9427,10 @@
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C222" s="8"/>
       <c r="D222" s="1">
@@ -9468,10 +9456,10 @@
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C223" s="8"/>
       <c r="D223" s="1">
@@ -9500,30 +9488,20 @@
         <v>705</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C224" s="8"/>
-      <c r="D224" s="7">
-        <v>706</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="H224" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I224" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J224" s="2" t="s">
-        <v>514</v>
-      </c>
+      <c r="D224" s="1">
+        <v>689</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F224" s="2"/>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="7"/>
+      <c r="J224" s="7"/>
       <c r="K224" s="7"/>
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
@@ -9536,98 +9514,90 @@
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
-        <v>706</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>553</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C225" s="8"/>
       <c r="D225" s="1">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
-      <c r="M225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
-      <c r="R225" s="1"/>
-      <c r="S225" s="1"/>
-      <c r="T225" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="F225" s="2"/>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="7"/>
+      <c r="J225" s="7"/>
+      <c r="K225" s="7"/>
+      <c r="L225" s="7"/>
+      <c r="M225" s="7"/>
+      <c r="N225" s="7"/>
+      <c r="O225" s="7"/>
+      <c r="P225" s="7"/>
+      <c r="Q225" s="7"/>
+      <c r="R225" s="7"/>
+      <c r="S225" s="7"/>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
+        <v>705</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C226" s="8"/>
+      <c r="D226" s="7">
         <v>706</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C226" s="6"/>
-      <c r="D226" s="1">
-        <v>715</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>261</v>
+      <c r="E226" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>264</v>
+        <v>505</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="K226" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
-      <c r="R226" s="1"/>
-      <c r="S226" s="1"/>
-      <c r="T226" s="1"/>
+        <v>514</v>
+      </c>
+      <c r="K226" s="7"/>
+      <c r="L226" s="7"/>
+      <c r="M226" s="7"/>
+      <c r="N226" s="7"/>
+      <c r="O226" s="7"/>
+      <c r="P226" s="7"/>
+      <c r="Q226" s="7"/>
+      <c r="R226" s="7"/>
+      <c r="S226" s="7"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>706</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>237</v>
+        <v>515</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D227" s="1">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>267</v>
+        <v>238</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
@@ -9646,26 +9616,36 @@
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="1">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
+        <v>262</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K228" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
@@ -9678,17 +9658,23 @@
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C229" s="6"/>
+        <v>237</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>554</v>
+      </c>
       <c r="D229" s="1">
-        <v>706</v>
-      </c>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
+        <v>714</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
@@ -9706,19 +9692,21 @@
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
+        <v>707</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C230" s="6"/>
+      <c r="D230" s="1">
         <v>708</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="D230" s="1">
-        <v>710</v>
-      </c>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
+      <c r="E230" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
@@ -9736,10 +9724,10 @@
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C231" s="6"/>
       <c r="D231" s="1">
@@ -9764,48 +9752,28 @@
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
-        <v>709</v>
-      </c>
-      <c r="B232" s="1"/>
+        <v>708</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="C232" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D232" s="1">
-        <v>712</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H232" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I232" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J232" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K232" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="L232" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M232" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="N232" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="O232" s="2" t="s">
-        <v>255</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
@@ -9814,46 +9782,26 @@
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
-        <v>710</v>
-      </c>
-      <c r="B233" s="1"/>
+        <v>708</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="C233" s="6"/>
       <c r="D233" s="1">
-        <v>712</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I233" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J233" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K233" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="L233" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M233" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="N233" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="O233" s="2" t="s">
-        <v>255</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
@@ -9862,83 +9810,117 @@
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B234" s="1"/>
-      <c r="C234" s="6"/>
+      <c r="C234" s="6" t="s">
+        <v>556</v>
+      </c>
       <c r="D234" s="1">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
-      <c r="K234" s="1"/>
-      <c r="L234" s="1"/>
-      <c r="M234" s="1"/>
-      <c r="N234" s="1"/>
-      <c r="O234" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K234" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L234" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M234" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N234" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O234" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
-      <c r="R234" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="R234" s="1"/>
       <c r="S234" s="1"/>
       <c r="T234" s="1"/>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="6"/>
       <c r="D235" s="1">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
-      <c r="K235" s="1"/>
-      <c r="L235" s="1"/>
-      <c r="M235" s="1"/>
-      <c r="N235" s="1"/>
-      <c r="O235" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J235" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K235" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L235" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M235" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N235" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O235" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
-      <c r="S235" s="1" t="s">
-        <v>322</v>
-      </c>
+      <c r="S235" s="1"/>
       <c r="T235" s="1"/>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
-        <v>713</v>
-      </c>
-      <c r="B236" s="2"/>
+        <v>711</v>
+      </c>
+      <c r="B236" s="1"/>
       <c r="C236" s="6"/>
       <c r="D236" s="1">
         <v>706</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F236" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -9950,28 +9932,30 @@
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
-      <c r="R236" s="1"/>
+      <c r="R236" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="S236" s="1"/>
       <c r="T236" s="1"/>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
-        <v>714</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>268</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="B237" s="1"/>
       <c r="C237" s="6"/>
       <c r="D237" s="1">
         <v>0</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G237" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
@@ -9984,23 +9968,21 @@
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
       <c r="S237" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="T237" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="T237" s="1"/>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
-        <v>714</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="B238" s="2"/>
       <c r="C238" s="6"/>
       <c r="D238" s="1">
         <v>706</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>270</v>
+        <v>429</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
@@ -10020,22 +10002,20 @@
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
-        <v>715</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>557</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C239" s="6"/>
       <c r="D239" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -10047,27 +10027,27 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
-      <c r="Q239" s="1" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
-      <c r="S239" s="1"/>
-      <c r="T239" s="1"/>
+      <c r="S239" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="T239" s="2"/>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>558</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C240" s="6"/>
       <c r="D240" s="1">
-        <v>716</v>
-      </c>
-      <c r="E240" s="1"/>
+        <v>706</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
@@ -10086,18 +10066,22 @@
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
-        <v>716</v>
-      </c>
-      <c r="B241" s="1"/>
-      <c r="C241" s="6"/>
+        <v>715</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>557</v>
+      </c>
       <c r="D241" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -10109,30 +10093,28 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
-      <c r="Q241" s="1"/>
+      <c r="Q241" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="R241" s="1"/>
-      <c r="S241" s="1" t="s">
-        <v>324</v>
-      </c>
+      <c r="S241" s="1"/>
       <c r="T241" s="1"/>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
-        <v>717</v>
-      </c>
-      <c r="B242" s="1"/>
+        <v>715</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="C242" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D242" s="1">
-        <v>8</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
@@ -10143,12 +10125,76 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
-      <c r="Q242" s="1" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
       <c r="T242" s="1"/>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>716</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="1">
+        <v>0</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="S243" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T243" s="1"/>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>717</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D244" s="1">
+        <v>8</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="Q244" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="R244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="T244" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
